--- a/Qwiic_Iridium_9603N_BOM.xlsx
+++ b/Qwiic_Iridium_9603N_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\thunderbird\home\pclark\Documents\eagle\SparkFun_Qwiic_Iridium_9603N\V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\thunderbird\home\pclark\Documents\eagle\SparkFun_Qwiic_Iridium_9603N\V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Qwiic_Iridium_9603N" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Qwiic_Iridium_9603N!$A$1:$K$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Qwiic_Iridium_9603N!$A$1:$L$76</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="202">
   <si>
     <t>X</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>2N2222</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -174,15 +168,6 @@
     <t>SMA Jack</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>142-0711-821</t>
-  </si>
-  <si>
-    <t>1019328</t>
-  </si>
-  <si>
     <t>Iridium 9603N:</t>
   </si>
   <si>
@@ -279,27 +264,9 @@
     <t>SOT23</t>
   </si>
   <si>
-    <t>DMG3415U-7</t>
-  </si>
-  <si>
     <t>Diodes Inc.</t>
   </si>
   <si>
-    <t>1843688</t>
-  </si>
-  <si>
-    <t>MOSFET; P Channel; SOT23-WIDE</t>
-  </si>
-  <si>
-    <t>Fairchild</t>
-  </si>
-  <si>
-    <t>MMBT2222A</t>
-  </si>
-  <si>
-    <t>Bipolar (BJT) Single Transistor, NPN, 40 V, 350 mW, 1 A</t>
-  </si>
-  <si>
     <t>Multicomp</t>
   </si>
   <si>
@@ -555,9 +522,6 @@
     <t>2396716</t>
   </si>
   <si>
-    <t>Microchip AVR ATtiny84 16MHz SOIC</t>
-  </si>
-  <si>
     <t>Fiducial 0.635mm</t>
   </si>
   <si>
@@ -567,9 +531,6 @@
     <t>See notes below</t>
   </si>
   <si>
-    <t>Alternate</t>
-  </si>
-  <si>
     <t>SMA End Launch Jack 50 Ohm</t>
   </si>
   <si>
@@ -589,6 +550,84 @@
   </si>
   <si>
     <t>HOLE2</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>0603B103K101CT</t>
+  </si>
+  <si>
+    <t>2496825</t>
+  </si>
+  <si>
+    <t>MultiLayer Ceramic Capacitor; 10nF; 100V; 0603; X7R</t>
+  </si>
+  <si>
+    <t>DMG3414U-7</t>
+  </si>
+  <si>
+    <t>MOSFET; N Channel; SOT23-WIDE</t>
+  </si>
+  <si>
+    <t>0.012 Ohm</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>TSOT6</t>
+  </si>
+  <si>
+    <t>ADM4210-1</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>Mouser Part No</t>
+  </si>
+  <si>
+    <t>MCWR06X1000FTL</t>
+  </si>
+  <si>
+    <t>Chip Resistor; Thick Film; 100R; 50V; 0603; 100mW</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RL0603FR-070R012L</t>
+  </si>
+  <si>
+    <t>603-RL0603FR070R012L</t>
+  </si>
+  <si>
+    <t>Current Sense Resistor; 12 mOhms; 0603; 100mW</t>
+  </si>
+  <si>
+    <t>584-ADM4210-1AUJZ-R7</t>
+  </si>
+  <si>
+    <t>Hot Swap Controller</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>Microchip AVR ATtiny841 16MHz SOIC</t>
+  </si>
+  <si>
+    <t>584-C3225EDDBTRMPBF</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1120,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1122,14 +1161,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1456,10 +1492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,12 +1508,13 @@
     <col min="7" max="7" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="54.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1495,22 +1532,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1521,17 +1561,18 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1540,9 +1581,10 @@
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1553,11 +1595,12 @@
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1568,9 +1611,10 @@
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1581,9 +1625,10 @@
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1602,11 +1647,12 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1625,11 +1671,12 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1641,10 +1688,11 @@
       <c r="I9" s="9"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1656,8 +1704,9 @@
       <c r="I10" s="9"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1669,8 +1718,9 @@
       <c r="I11" s="9"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1684,26 +1734,27 @@
         <v>270</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I12" s="9">
         <v>2688523</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
@@ -1717,26 +1768,27 @@
         <v>270</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -1750,26 +1802,27 @@
         <v>270</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I14" s="9">
         <v>2496916</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>9</v>
       </c>
@@ -1783,26 +1836,27 @@
         <v>270</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>10</v>
       </c>
@@ -1816,26 +1870,27 @@
         <v>270</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
@@ -1849,378 +1904,390 @@
         <v>180</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I17" s="9">
         <v>2496916</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="B18" s="7">
-        <v>48.26</v>
+        <v>40.51</v>
       </c>
       <c r="C18" s="7">
-        <v>13.97</v>
+        <v>35.94</v>
       </c>
       <c r="D18" s="8">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="G18" s="6" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="B19" s="7">
-        <v>48.26</v>
+        <v>33.15</v>
       </c>
       <c r="C19" s="7">
-        <v>16.510000000000002</v>
+        <v>33.4</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="G19" s="6" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7">
         <v>48.26</v>
       </c>
       <c r="C20" s="7">
-        <v>19.05</v>
+        <v>13.97</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B21" s="7">
-        <v>22.7</v>
+        <v>48.26</v>
       </c>
       <c r="C21" s="7">
-        <v>34.49</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="E21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="6" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B22" s="7">
-        <v>3.24</v>
+        <v>48.26</v>
       </c>
       <c r="C22" s="7">
-        <v>25.4</v>
+        <v>19.05</v>
       </c>
       <c r="D22" s="8">
-        <v>270</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9" t="s">
-        <v>156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7">
-        <v>47.56</v>
+        <v>22.7</v>
       </c>
       <c r="C23" s="7">
-        <v>25.4</v>
+        <v>34.49</v>
       </c>
       <c r="D23" s="8">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B24" s="7">
-        <v>38.1</v>
+        <v>3.24</v>
       </c>
       <c r="C24" s="7">
-        <v>34.61</v>
+        <v>25.4</v>
       </c>
       <c r="D24" s="8">
+        <v>270</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="7">
+        <v>47.56</v>
+      </c>
+      <c r="C25" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="D25" s="8">
         <v>90</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="7">
+        <v>38.729999999999997</v>
+      </c>
+      <c r="C26" s="7">
+        <v>40.96</v>
+      </c>
+      <c r="D26" s="8">
+        <v>90</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="17">
-        <v>29.59</v>
-      </c>
-      <c r="C25" s="17">
-        <v>34.67</v>
-      </c>
-      <c r="D25" s="17">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B27" s="17">
+        <v>29.08</v>
+      </c>
+      <c r="C27" s="17">
+        <v>35.56</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="17">
+        <v>2061404</v>
+      </c>
+      <c r="L27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="17">
+        <v>43.18</v>
+      </c>
+      <c r="C28" s="17">
+        <v>13.97</v>
+      </c>
+      <c r="D28" s="17">
+        <v>180</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" t="s">
         <v>84</v>
       </c>
-      <c r="F25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="17">
-        <v>37.21</v>
-      </c>
-      <c r="C26" s="17">
-        <v>17.78</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" t="s">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26" s="17">
-        <v>9846700</v>
-      </c>
-      <c r="K26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="17">
-        <v>43.18</v>
-      </c>
-      <c r="C27" s="17">
-        <v>13.97</v>
-      </c>
-      <c r="D27" s="17">
-        <v>180</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="17">
+      <c r="B29" s="17">
         <v>6.35</v>
-      </c>
-      <c r="C28" s="17">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="D28" s="17">
-        <v>90</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="17">
-        <v>2447320</v>
-      </c>
-      <c r="K28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="17">
-        <v>3.81</v>
       </c>
       <c r="C29" s="17">
         <v>33.020000000000003</v>
@@ -2229,508 +2296,542 @@
         <v>90</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I29" s="17">
         <v>2447320</v>
       </c>
-      <c r="K29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" s="17">
+        <v>3.81</v>
+      </c>
+      <c r="C30" s="17">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="D30" s="17">
+        <v>90</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="17">
+        <v>2447320</v>
+      </c>
+      <c r="L30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="17">
         <v>17.649999999999999</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C31" s="17">
         <v>16.260000000000002</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="17">
         <v>0</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" t="s">
-        <v>169</v>
-      </c>
-      <c r="I30" s="17">
+      <c r="E31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="17">
         <v>2447385</v>
       </c>
-      <c r="K30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="17">
+      <c r="L31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="17">
         <v>22.23</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C32" s="17">
         <v>13.34</v>
-      </c>
-      <c r="D31" s="17">
-        <v>90</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="17">
-        <v>47.24</v>
-      </c>
-      <c r="C32" s="17">
-        <v>31.75</v>
       </c>
       <c r="D32" s="17">
         <v>90</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
-      </c>
-      <c r="I32" s="17">
-        <v>2447243</v>
-      </c>
-      <c r="K32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33" s="17">
-        <v>44.2</v>
+        <v>47.24</v>
       </c>
       <c r="C33" s="17">
         <v>31.75</v>
       </c>
       <c r="D33" s="17">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="I33" s="17">
-        <v>2447334</v>
-      </c>
-      <c r="K33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2447243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="17">
-        <v>39.119999999999997</v>
+        <v>44.2</v>
       </c>
       <c r="C34" s="17">
-        <v>29.85</v>
+        <v>31.75</v>
       </c>
       <c r="D34" s="17">
         <v>270</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="I34" s="17">
-        <v>2447226</v>
-      </c>
-      <c r="K34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2447334</v>
+      </c>
+      <c r="L34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B35" s="17">
-        <v>32.51</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="C35" s="17">
-        <v>34.67</v>
+        <v>29.85</v>
       </c>
       <c r="D35" s="17">
         <v>270</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="17">
+        <v>2447226</v>
+      </c>
+      <c r="L35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B36" s="17">
-        <v>33.53</v>
+        <v>30.48</v>
       </c>
       <c r="C36" s="17">
-        <v>17.399999999999999</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="D36" s="17">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>94</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="I36" s="17"/>
       <c r="K36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="L36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B37" s="17">
-        <v>31.5</v>
+        <v>37.85</v>
       </c>
       <c r="C37" s="17">
-        <v>17.399999999999999</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="D37" s="17">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>137</v>
+        <v>66</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>96</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="I37" s="17">
+        <v>2447227</v>
+      </c>
+      <c r="L37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="B38" s="17">
+        <v>37.85</v>
+      </c>
+      <c r="C38" s="17">
+        <v>36.83</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="17">
+        <v>2447227</v>
+      </c>
+      <c r="L38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="17">
         <v>43.18</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C39" s="17">
         <v>16.510000000000002</v>
-      </c>
-      <c r="D38" s="17">
-        <v>180</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" t="s">
-        <v>93</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="17">
-        <v>43.05</v>
-      </c>
-      <c r="C39" s="17">
-        <v>19.05</v>
       </c>
       <c r="D39" s="17">
         <v>180</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="17">
+        <v>82</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="17">
+        <v>43.05</v>
+      </c>
+      <c r="C40" s="17">
+        <v>19.05</v>
+      </c>
+      <c r="D40" s="17">
+        <v>180</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="17">
         <v>2447320</v>
       </c>
-      <c r="K39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="7">
+      <c r="L40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="17">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="C41" s="17">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="7">
         <v>24.77</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C42" s="7">
         <v>19.05</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D42" s="8">
         <v>0</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="7">
-        <v>30.61</v>
-      </c>
-      <c r="C41" s="7">
-        <v>29.72</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="G42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="9"/>
+      <c r="L42" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="7">
+        <v>30.61</v>
+      </c>
+      <c r="C43" s="7">
+        <v>29.72</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-    </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="K43" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="7">
+        <v>34.04</v>
+      </c>
+      <c r="C44" s="7">
+        <v>36.96</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="12">
-        <v>3.81</v>
-      </c>
-      <c r="C45" s="12">
-        <v>3.81</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="G44" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="12">
-        <v>28.81</v>
-      </c>
-      <c r="C46" s="12">
-        <v>3.81</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2742,156 +2843,179 @@
       <c r="I47" s="13"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" t="s">
-        <v>146</v>
-      </c>
-      <c r="K50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="12">
+        <v>3.81</v>
+      </c>
+      <c r="C48" s="12">
+        <v>3.81</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="12">
+        <v>28.81</v>
+      </c>
+      <c r="C49" s="12">
+        <v>3.81</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
       <c r="B52" s="9"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="9"/>
       <c r="F53" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>80</v>
+        <v>133</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="I53" s="17">
-        <v>2856818</v>
-      </c>
-      <c r="K53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>134</v>
+      </c>
+      <c r="I53" t="s">
+        <v>135</v>
+      </c>
+      <c r="L53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" t="s">
+        <v>63</v>
+      </c>
+      <c r="L54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+      <c r="F55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I55" s="17">
+        <v>2856818</v>
+      </c>
+      <c r="L55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2903,29 +3027,25 @@
       <c r="I56" s="9"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>54</v>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2937,32 +3057,47 @@
       <c r="I58" s="9"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="9"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="9"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>57</v>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="6"/>
@@ -2971,17 +3106,9 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="J61" t="s">
-        <v>58</v>
-      </c>
-      <c r="K61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
       <c r="B62" s="9"/>
       <c r="C62" s="6"/>
       <c r="D62" s="9"/>
@@ -2989,15 +3116,11 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="J62" t="s">
-        <v>61</v>
-      </c>
-      <c r="K62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="B63" s="9"/>
       <c r="C63" s="6"/>
       <c r="D63" s="9"/>
@@ -3005,10 +3128,16 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
+      <c r="J63" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="6"/>
@@ -3017,9 +3146,15 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="J64" t="s">
+        <v>56</v>
+      </c>
+      <c r="L64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
       <c r="B65" s="9"/>
       <c r="C65" s="6"/>
       <c r="D65" s="9"/>
@@ -3028,30 +3163,20 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>64</v>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="6"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I66" s="17">
-        <v>2664624</v>
-      </c>
-      <c r="K66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
       <c r="B67" s="9"/>
       <c r="C67" s="6"/>
       <c r="D67" s="9"/>
@@ -3060,20 +3185,30 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>105</v>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="6"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="G68" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" s="17">
+        <v>2664624</v>
+      </c>
+      <c r="L68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
       <c r="B69" s="9"/>
       <c r="C69" s="6"/>
       <c r="D69" s="9"/>
@@ -3082,30 +3217,20 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>55</v>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="6"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I70" t="s">
-        <v>149</v>
-      </c>
-      <c r="K70" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
       <c r="B71" s="9"/>
       <c r="C71" s="6"/>
       <c r="D71" s="9"/>
@@ -3114,20 +3239,30 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>113</v>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="6"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="G72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I72" t="s">
+        <v>138</v>
+      </c>
+      <c r="L72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
       <c r="B73" s="9"/>
       <c r="C73" s="6"/>
       <c r="D73" s="9"/>
@@ -3136,9 +3271,9 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>179</v>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="6"/>
@@ -3148,19 +3283,39 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A52:A53"/>
+  <mergeCells count="1">
+    <mergeCell ref="B54:D54"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K57" r:id="rId1"/>
+    <hyperlink ref="L59" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Qwiic_Iridium_9603N_BOM.xlsx
+++ b/Qwiic_Iridium_9603N_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\thunderbird\home\pclark\Documents\eagle\SparkFun_Qwiic_Iridium_9603N\V3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Qwiic_Iridium_9603N\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="202">
   <si>
     <t>X</t>
   </si>
@@ -1494,9 +1494,7 @@
   </sheetPr>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1975,21 +1973,21 @@
         <v>66</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>140</v>
+        <v>68</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2496916</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
